--- a/Generic_Macro/SavedData/M2SL.xlsx
+++ b/Generic_Macro/SavedData/M2SL.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B281"/>
+  <dimension ref="A1:B282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2467,7 +2467,7 @@
         <v>44166</v>
       </c>
       <c r="B253" t="n">
-        <v>19114.2</v>
+        <v>19114.3</v>
       </c>
     </row>
     <row r="254">
@@ -2475,7 +2475,7 @@
         <v>44197</v>
       </c>
       <c r="B254" t="n">
-        <v>19356.8</v>
+        <v>19356.7</v>
       </c>
     </row>
     <row r="255">
@@ -2483,7 +2483,7 @@
         <v>44228</v>
       </c>
       <c r="B255" t="n">
-        <v>19600.1</v>
+        <v>19600.3</v>
       </c>
     </row>
     <row r="256">
@@ -2491,7 +2491,7 @@
         <v>44256</v>
       </c>
       <c r="B256" t="n">
-        <v>19841</v>
+        <v>19841.2</v>
       </c>
     </row>
     <row r="257">
@@ -2499,7 +2499,7 @@
         <v>44287</v>
       </c>
       <c r="B257" t="n">
-        <v>20116.7</v>
+        <v>20116.9</v>
       </c>
     </row>
     <row r="258">
@@ -2507,7 +2507,7 @@
         <v>44317</v>
       </c>
       <c r="B258" t="n">
-        <v>20430.9</v>
+        <v>20431.1</v>
       </c>
     </row>
     <row r="259">
@@ -2515,7 +2515,7 @@
         <v>44348</v>
       </c>
       <c r="B259" t="n">
-        <v>20506.5</v>
+        <v>20506.6</v>
       </c>
     </row>
     <row r="260">
@@ -2523,7 +2523,7 @@
         <v>44378</v>
       </c>
       <c r="B260" t="n">
-        <v>20662.6</v>
+        <v>20662.9</v>
       </c>
     </row>
     <row r="261">
@@ -2531,7 +2531,7 @@
         <v>44409</v>
       </c>
       <c r="B261" t="n">
-        <v>20847.2</v>
+        <v>20847.8</v>
       </c>
     </row>
     <row r="262">
@@ -2539,7 +2539,7 @@
         <v>44440</v>
       </c>
       <c r="B262" t="n">
-        <v>20963.9</v>
+        <v>20964.3</v>
       </c>
     </row>
     <row r="263">
@@ -2547,7 +2547,7 @@
         <v>44470</v>
       </c>
       <c r="B263" t="n">
-        <v>21116.1</v>
+        <v>21116.2</v>
       </c>
     </row>
     <row r="264">
@@ -2555,7 +2555,7 @@
         <v>44501</v>
       </c>
       <c r="B264" t="n">
-        <v>21316</v>
+        <v>21316.1</v>
       </c>
     </row>
     <row r="265">
@@ -2563,7 +2563,7 @@
         <v>44531</v>
       </c>
       <c r="B265" t="n">
-        <v>21549.3</v>
+        <v>21549.1</v>
       </c>
     </row>
     <row r="266">
@@ -2571,7 +2571,7 @@
         <v>44562</v>
       </c>
       <c r="B266" t="n">
-        <v>21562.4</v>
+        <v>21561.8</v>
       </c>
     </row>
     <row r="267">
@@ -2579,7 +2579,7 @@
         <v>44593</v>
       </c>
       <c r="B267" t="n">
-        <v>21571.1</v>
+        <v>21570.3</v>
       </c>
     </row>
     <row r="268">
@@ -2587,7 +2587,7 @@
         <v>44621</v>
       </c>
       <c r="B268" t="n">
-        <v>21698.2</v>
+        <v>21697.5</v>
       </c>
     </row>
     <row r="269">
@@ -2595,7 +2595,7 @@
         <v>44652</v>
       </c>
       <c r="B269" t="n">
-        <v>21677.7</v>
+        <v>21677.1</v>
       </c>
     </row>
     <row r="270">
@@ -2603,7 +2603,7 @@
         <v>44682</v>
       </c>
       <c r="B270" t="n">
-        <v>21665.7</v>
+        <v>21665.2</v>
       </c>
     </row>
     <row r="271">
@@ -2611,7 +2611,7 @@
         <v>44713</v>
       </c>
       <c r="B271" t="n">
-        <v>21666.5</v>
+        <v>21665.7</v>
       </c>
     </row>
     <row r="272">
@@ -2619,7 +2619,7 @@
         <v>44743</v>
       </c>
       <c r="B272" t="n">
-        <v>21703.8</v>
+        <v>21702.6</v>
       </c>
     </row>
     <row r="273">
@@ -2627,7 +2627,7 @@
         <v>44774</v>
       </c>
       <c r="B273" t="n">
-        <v>21660</v>
+        <v>21658.9</v>
       </c>
     </row>
     <row r="274">
@@ -2643,7 +2643,7 @@
         <v>44835</v>
       </c>
       <c r="B275" t="n">
-        <v>21432.1</v>
+        <v>21432.3</v>
       </c>
     </row>
     <row r="276">
@@ -2651,7 +2651,7 @@
         <v>44866</v>
       </c>
       <c r="B276" t="n">
-        <v>21398.7</v>
+        <v>21399</v>
       </c>
     </row>
     <row r="277">
@@ -2667,7 +2667,7 @@
         <v>44927</v>
       </c>
       <c r="B278" t="n">
-        <v>21212.6</v>
+        <v>21212.7</v>
       </c>
     </row>
     <row r="279">
@@ -2675,7 +2675,7 @@
         <v>44958</v>
       </c>
       <c r="B279" t="n">
-        <v>21076.9</v>
+        <v>21077.4</v>
       </c>
     </row>
     <row r="280">
@@ -2683,7 +2683,7 @@
         <v>44986</v>
       </c>
       <c r="B280" t="n">
-        <v>20840.3</v>
+        <v>20841.1</v>
       </c>
     </row>
     <row r="281">
@@ -2691,7 +2691,15 @@
         <v>45017</v>
       </c>
       <c r="B281" t="n">
-        <v>20673.1</v>
+        <v>20674.6</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="3" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B282" t="n">
+        <v>20805.5</v>
       </c>
     </row>
   </sheetData>
@@ -2705,7 +2713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2745,7 +2753,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2023-07-13</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2765,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2023-07-13</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2801,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-04-01</t>
+          <t>2023-05-01</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2885,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-05-23 12:02:03-05</t>
+          <t>2023-06-27 12:03:02-05</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2896,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
@@ -2902,6 +2910,18 @@
           <t>Before May 2020, M2 consists of M1 plus (1) savings deposits (including money market deposit accounts); (2) small-denomination time deposits (time deposits in amounts of less than $100,000) less individual retirement account (IRA) and Keogh balances at depository institutions; and (3) balances in retail money market funds (MMFs) less IRA and Keogh balances at MMFs.
 Beginning May 2020, M2 consists of M1 plus (1) small-denomination time deposits (time deposits in amounts of less than $100,000) less IRA and Keogh balances at depository institutions; and (2) balances in retail MMFs less IRA and Keogh balances at MMFs. Seasonally adjusted M2 is constructed by summing savings deposits (before May 2020), small-denomination time deposits, and retail MMFs, each seasonally adjusted separately, and adding this result to seasonally adjusted M1.
 For more information on the H.6 release changes and the regulatory amendment that led to the creation of the other liquid deposits component and its inclusion in the M1 monetary aggregate, see the H.6 announcements (https://www.federalreserve.gov/feeds/h6.html) and Technical Q&amp;As (https://www.federalreserve.gov/releases/h6/h6_technical_qa.htm) posted on December 17, 2020.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>fred</t>
         </is>
       </c>
     </row>

--- a/Generic_Macro/SavedData/M2SL.xlsx
+++ b/Generic_Macro/SavedData/M2SL.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B282"/>
+  <dimension ref="A1:B187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,2250 +456,1490 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>36526</v>
+        <v>39448</v>
       </c>
       <c r="B2" t="n">
-        <v>4666.2</v>
+        <v>7505.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>36557</v>
+        <v>39479</v>
       </c>
       <c r="B3" t="n">
-        <v>4679.4</v>
+        <v>7590.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>36586</v>
+        <v>39508</v>
       </c>
       <c r="B4" t="n">
-        <v>4710.2</v>
+        <v>7656.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>36617</v>
+        <v>39539</v>
       </c>
       <c r="B5" t="n">
-        <v>4766.1</v>
+        <v>7699.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>36647</v>
+        <v>39569</v>
       </c>
       <c r="B6" t="n">
-        <v>4753.9</v>
+        <v>7711.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>36678</v>
+        <v>39600</v>
       </c>
       <c r="B7" t="n">
-        <v>4771.8</v>
+        <v>7728.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>36708</v>
+        <v>39630</v>
       </c>
       <c r="B8" t="n">
-        <v>4789.4</v>
+        <v>7775.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>36739</v>
+        <v>39661</v>
       </c>
       <c r="B9" t="n">
-        <v>4817.5</v>
+        <v>7790.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>36770</v>
+        <v>39692</v>
       </c>
       <c r="B10" t="n">
-        <v>4853.2</v>
+        <v>7859.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>36800</v>
+        <v>39722</v>
       </c>
       <c r="B11" t="n">
-        <v>4869.2</v>
+        <v>7965.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>36831</v>
+        <v>39753</v>
       </c>
       <c r="B12" t="n">
-        <v>4880.3</v>
+        <v>8015.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>36861</v>
+        <v>39783</v>
       </c>
       <c r="B13" t="n">
-        <v>4925</v>
+        <v>8192.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>36892</v>
+        <v>39814</v>
       </c>
       <c r="B14" t="n">
-        <v>4975.7</v>
+        <v>8273.700000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>36923</v>
+        <v>39845</v>
       </c>
       <c r="B15" t="n">
-        <v>5014.1</v>
+        <v>8303.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>36951</v>
+        <v>39873</v>
       </c>
       <c r="B16" t="n">
-        <v>5072</v>
+        <v>8369.299999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>36982</v>
+        <v>39904</v>
       </c>
       <c r="B17" t="n">
-        <v>5135.9</v>
+        <v>8372.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>37012</v>
+        <v>39934</v>
       </c>
       <c r="B18" t="n">
-        <v>5133</v>
+        <v>8430.700000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>37043</v>
+        <v>39965</v>
       </c>
       <c r="B19" t="n">
-        <v>5173.5</v>
+        <v>8440.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>37073</v>
+        <v>39995</v>
       </c>
       <c r="B20" t="n">
-        <v>5203.4</v>
+        <v>8445.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>37104</v>
+        <v>40026</v>
       </c>
       <c r="B21" t="n">
-        <v>5237.2</v>
+        <v>8445</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>37135</v>
+        <v>40057</v>
       </c>
       <c r="B22" t="n">
-        <v>5348.4</v>
+        <v>8444.200000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>37165</v>
+        <v>40087</v>
       </c>
       <c r="B23" t="n">
-        <v>5337.1</v>
+        <v>8471.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>37196</v>
+        <v>40118</v>
       </c>
       <c r="B24" t="n">
-        <v>5380.8</v>
+        <v>8500.799999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>37226</v>
+        <v>40148</v>
       </c>
       <c r="B25" t="n">
-        <v>5433.8</v>
+        <v>8496</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>37257</v>
+        <v>40179</v>
       </c>
       <c r="B26" t="n">
-        <v>5454.1</v>
+        <v>8458.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>37288</v>
+        <v>40210</v>
       </c>
       <c r="B27" t="n">
-        <v>5483.4</v>
+        <v>8507.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>37316</v>
+        <v>40238</v>
       </c>
       <c r="B28" t="n">
-        <v>5495.2</v>
+        <v>8504.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>37347</v>
+        <v>40269</v>
       </c>
       <c r="B29" t="n">
-        <v>5495.4</v>
+        <v>8535.200000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>37377</v>
+        <v>40299</v>
       </c>
       <c r="B30" t="n">
-        <v>5521.5</v>
+        <v>8589.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>37408</v>
+        <v>40330</v>
       </c>
       <c r="B31" t="n">
-        <v>5546.5</v>
+        <v>8609</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>37438</v>
+        <v>40360</v>
       </c>
       <c r="B32" t="n">
-        <v>5589.1</v>
+        <v>8618.799999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>37469</v>
+        <v>40391</v>
       </c>
       <c r="B33" t="n">
-        <v>5631.6</v>
+        <v>8669.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>37500</v>
+        <v>40422</v>
       </c>
       <c r="B34" t="n">
-        <v>5656</v>
+        <v>8700.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>37530</v>
+        <v>40452</v>
       </c>
       <c r="B35" t="n">
-        <v>5700.4</v>
+        <v>8749.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>37561</v>
+        <v>40483</v>
       </c>
       <c r="B36" t="n">
-        <v>5750.6</v>
+        <v>8770</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>37591</v>
+        <v>40513</v>
       </c>
       <c r="B37" t="n">
-        <v>5772</v>
+        <v>8801.799999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>37622</v>
+        <v>40544</v>
       </c>
       <c r="B38" t="n">
-        <v>5804.6</v>
+        <v>8823.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>37653</v>
+        <v>40575</v>
       </c>
       <c r="B39" t="n">
-        <v>5840.7</v>
+        <v>8886.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>37681</v>
+        <v>40603</v>
       </c>
       <c r="B40" t="n">
-        <v>5861.4</v>
+        <v>8943.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>37712</v>
+        <v>40634</v>
       </c>
       <c r="B41" t="n">
-        <v>5898.8</v>
+        <v>9004.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>37742</v>
+        <v>40664</v>
       </c>
       <c r="B42" t="n">
-        <v>5959.3</v>
+        <v>9075.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>37773</v>
+        <v>40695</v>
       </c>
       <c r="B43" t="n">
-        <v>5996</v>
+        <v>9151</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>37803</v>
+        <v>40725</v>
       </c>
       <c r="B44" t="n">
-        <v>6042.7</v>
+        <v>9316.6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>37834</v>
+        <v>40756</v>
       </c>
       <c r="B45" t="n">
-        <v>6100.8</v>
+        <v>9507.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>37865</v>
+        <v>40787</v>
       </c>
       <c r="B46" t="n">
-        <v>6072.8</v>
+        <v>9528.299999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>37895</v>
+        <v>40817</v>
       </c>
       <c r="B47" t="n">
-        <v>6063.6</v>
+        <v>9562.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>37926</v>
+        <v>40848</v>
       </c>
       <c r="B48" t="n">
-        <v>6069.1</v>
+        <v>9612.6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>37956</v>
+        <v>40878</v>
       </c>
       <c r="B49" t="n">
-        <v>6067.3</v>
+        <v>9660.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>37987</v>
+        <v>40909</v>
       </c>
       <c r="B50" t="n">
-        <v>6075.5</v>
+        <v>9733.299999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>38018</v>
+        <v>40940</v>
       </c>
       <c r="B51" t="n">
-        <v>6114.3</v>
+        <v>9785.700000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>38047</v>
+        <v>40969</v>
       </c>
       <c r="B52" t="n">
-        <v>6150.1</v>
+        <v>9830.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>38078</v>
+        <v>41000</v>
       </c>
       <c r="B53" t="n">
-        <v>6191.2</v>
+        <v>9884.6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>38108</v>
+        <v>41030</v>
       </c>
       <c r="B54" t="n">
-        <v>6268.1</v>
+        <v>9928.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>38139</v>
+        <v>41061</v>
       </c>
       <c r="B55" t="n">
-        <v>6270.5</v>
+        <v>9999.299999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>38169</v>
+        <v>41091</v>
       </c>
       <c r="B56" t="n">
-        <v>6284.3</v>
+        <v>10051.8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>38200</v>
+        <v>41122</v>
       </c>
       <c r="B57" t="n">
-        <v>6310.6</v>
+        <v>10121.3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>38231</v>
+        <v>41153</v>
       </c>
       <c r="B58" t="n">
-        <v>6345.3</v>
+        <v>10200.8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>38261</v>
+        <v>41183</v>
       </c>
       <c r="B59" t="n">
-        <v>6373.3</v>
+        <v>10267.3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>38292</v>
+        <v>41214</v>
       </c>
       <c r="B60" t="n">
-        <v>6399.8</v>
+        <v>10337.6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>38322</v>
+        <v>41244</v>
       </c>
       <c r="B61" t="n">
-        <v>6418.3</v>
+        <v>10459.7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>38353</v>
+        <v>41275</v>
       </c>
       <c r="B62" t="n">
-        <v>6424.5</v>
+        <v>10482.9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>38384</v>
+        <v>41306</v>
       </c>
       <c r="B63" t="n">
-        <v>6432.8</v>
+        <v>10501.3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>38412</v>
+        <v>41334</v>
       </c>
       <c r="B64" t="n">
-        <v>6441.9</v>
+        <v>10558.3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>38443</v>
+        <v>41365</v>
       </c>
       <c r="B65" t="n">
-        <v>6455.9</v>
+        <v>10586.3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>38473</v>
+        <v>41395</v>
       </c>
       <c r="B66" t="n">
-        <v>6473.3</v>
+        <v>10621</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>38504</v>
+        <v>41426</v>
       </c>
       <c r="B67" t="n">
-        <v>6505.8</v>
+        <v>10678.7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>38534</v>
+        <v>41456</v>
       </c>
       <c r="B68" t="n">
-        <v>6537.4</v>
+        <v>10718.4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>38565</v>
+        <v>41487</v>
       </c>
       <c r="B69" t="n">
-        <v>6570.2</v>
+        <v>10776.6</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>38596</v>
+        <v>41518</v>
       </c>
       <c r="B70" t="n">
-        <v>6604.3</v>
+        <v>10837.2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>38626</v>
+        <v>41548</v>
       </c>
       <c r="B71" t="n">
-        <v>6638.6</v>
+        <v>10961.6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>38657</v>
+        <v>41579</v>
       </c>
       <c r="B72" t="n">
-        <v>6655</v>
+        <v>10969.7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>38687</v>
+        <v>41609</v>
       </c>
       <c r="B73" t="n">
-        <v>6681.9</v>
+        <v>11035</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>38718</v>
+        <v>41640</v>
       </c>
       <c r="B74" t="n">
-        <v>6724.3</v>
+        <v>11080.8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>38749</v>
+        <v>41671</v>
       </c>
       <c r="B75" t="n">
-        <v>6748.6</v>
+        <v>11178.8</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>38777</v>
+        <v>41699</v>
       </c>
       <c r="B76" t="n">
-        <v>6762.9</v>
+        <v>11208.1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>38808</v>
+        <v>41730</v>
       </c>
       <c r="B77" t="n">
-        <v>6800.1</v>
+        <v>11257.7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
-        <v>38838</v>
+        <v>41760</v>
       </c>
       <c r="B78" t="n">
-        <v>6806.9</v>
+        <v>11321</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="n">
-        <v>38869</v>
+        <v>41791</v>
       </c>
       <c r="B79" t="n">
-        <v>6844.9</v>
+        <v>11374.9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="n">
-        <v>38899</v>
+        <v>41821</v>
       </c>
       <c r="B80" t="n">
-        <v>6886.3</v>
+        <v>11429.9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="n">
-        <v>38930</v>
+        <v>41852</v>
       </c>
       <c r="B81" t="n">
-        <v>6917.1</v>
+        <v>11458.9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="n">
-        <v>38961</v>
+        <v>41883</v>
       </c>
       <c r="B82" t="n">
-        <v>6944.2</v>
+        <v>11499.8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="n">
-        <v>38991</v>
+        <v>41913</v>
       </c>
       <c r="B83" t="n">
-        <v>6993.3</v>
+        <v>11566</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="n">
-        <v>39022</v>
+        <v>41944</v>
       </c>
       <c r="B84" t="n">
-        <v>7028.4</v>
+        <v>11604.8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="n">
-        <v>39052</v>
+        <v>41974</v>
       </c>
       <c r="B85" t="n">
-        <v>7071.6</v>
+        <v>11684.9</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="n">
-        <v>39083</v>
+        <v>42005</v>
       </c>
       <c r="B86" t="n">
-        <v>7109.6</v>
+        <v>11745.6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="n">
-        <v>39114</v>
+        <v>42036</v>
       </c>
       <c r="B87" t="n">
-        <v>7125.3</v>
+        <v>11879</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="n">
-        <v>39142</v>
+        <v>42064</v>
       </c>
       <c r="B88" t="n">
-        <v>7159.1</v>
+        <v>11886.8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="n">
-        <v>39173</v>
+        <v>42095</v>
       </c>
       <c r="B89" t="n">
-        <v>7231.3</v>
+        <v>11928.9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="n">
-        <v>39203</v>
+        <v>42125</v>
       </c>
       <c r="B90" t="n">
-        <v>7245.4</v>
+        <v>11957.9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="n">
-        <v>39234</v>
+        <v>42156</v>
       </c>
       <c r="B91" t="n">
-        <v>7278.6</v>
+        <v>12001.7</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="n">
-        <v>39264</v>
+        <v>42186</v>
       </c>
       <c r="B92" t="n">
-        <v>7309</v>
+        <v>12051.3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="n">
-        <v>39295</v>
+        <v>42217</v>
       </c>
       <c r="B93" t="n">
-        <v>7385.1</v>
+        <v>12101.9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="n">
-        <v>39326</v>
+        <v>42248</v>
       </c>
       <c r="B94" t="n">
-        <v>7403.2</v>
+        <v>12160.8</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="n">
-        <v>39356</v>
+        <v>42278</v>
       </c>
       <c r="B95" t="n">
-        <v>7417.2</v>
+        <v>12195.9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="n">
-        <v>39387</v>
+        <v>42309</v>
       </c>
       <c r="B96" t="n">
-        <v>7441.8</v>
+        <v>12284.6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="n">
-        <v>39417</v>
+        <v>42339</v>
       </c>
       <c r="B97" t="n">
-        <v>7471.6</v>
+        <v>12346.8</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="n">
-        <v>39448</v>
+        <v>42370</v>
       </c>
       <c r="B98" t="n">
-        <v>7505.5</v>
+        <v>12469.9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="n">
-        <v>39479</v>
+        <v>42401</v>
       </c>
       <c r="B99" t="n">
-        <v>7590.6</v>
+        <v>12556.7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="n">
-        <v>39508</v>
+        <v>42430</v>
       </c>
       <c r="B100" t="n">
-        <v>7656.2</v>
+        <v>12616.7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="n">
-        <v>39539</v>
+        <v>42461</v>
       </c>
       <c r="B101" t="n">
-        <v>7699.2</v>
+        <v>12700.4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="n">
-        <v>39569</v>
+        <v>42491</v>
       </c>
       <c r="B102" t="n">
-        <v>7711.2</v>
+        <v>12766.2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="n">
-        <v>39600</v>
+        <v>42522</v>
       </c>
       <c r="B103" t="n">
-        <v>7728.9</v>
+        <v>12829.4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="n">
-        <v>39630</v>
+        <v>42552</v>
       </c>
       <c r="B104" t="n">
-        <v>7775.4</v>
+        <v>12887.7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="n">
-        <v>39661</v>
+        <v>42583</v>
       </c>
       <c r="B105" t="n">
-        <v>7790.2</v>
+        <v>12972.8</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="n">
-        <v>39692</v>
+        <v>42614</v>
       </c>
       <c r="B106" t="n">
-        <v>7859.5</v>
+        <v>13033.6</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="n">
-        <v>39722</v>
+        <v>42644</v>
       </c>
       <c r="B107" t="n">
-        <v>7965.3</v>
+        <v>13100.5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="n">
-        <v>39753</v>
+        <v>42675</v>
       </c>
       <c r="B108" t="n">
-        <v>8015.8</v>
+        <v>13173.4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="n">
-        <v>39783</v>
+        <v>42705</v>
       </c>
       <c r="B109" t="n">
-        <v>8192.1</v>
+        <v>13213.4</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="n">
-        <v>39814</v>
+        <v>42736</v>
       </c>
       <c r="B110" t="n">
-        <v>8273.700000000001</v>
+        <v>13283.4</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="n">
-        <v>39845</v>
+        <v>42767</v>
       </c>
       <c r="B111" t="n">
-        <v>8303.1</v>
+        <v>13358.8</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="n">
-        <v>39873</v>
+        <v>42795</v>
       </c>
       <c r="B112" t="n">
-        <v>8369.299999999999</v>
+        <v>13426.9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="n">
-        <v>39904</v>
+        <v>42826</v>
       </c>
       <c r="B113" t="n">
-        <v>8372.9</v>
+        <v>13484.9</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="n">
-        <v>39934</v>
+        <v>42856</v>
       </c>
       <c r="B114" t="n">
-        <v>8430.700000000001</v>
+        <v>13538.1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="n">
-        <v>39965</v>
+        <v>42887</v>
       </c>
       <c r="B115" t="n">
-        <v>8440.5</v>
+        <v>13559.2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="n">
-        <v>39995</v>
+        <v>42917</v>
       </c>
       <c r="B116" t="n">
-        <v>8445.1</v>
+        <v>13618.7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="n">
-        <v>40026</v>
+        <v>42948</v>
       </c>
       <c r="B117" t="n">
-        <v>8445</v>
+        <v>13673.7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="n">
-        <v>40057</v>
+        <v>42979</v>
       </c>
       <c r="B118" t="n">
-        <v>8444.200000000001</v>
+        <v>13717.9</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="n">
-        <v>40087</v>
+        <v>43009</v>
       </c>
       <c r="B119" t="n">
-        <v>8471.1</v>
+        <v>13770.1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="n">
-        <v>40118</v>
+        <v>43040</v>
       </c>
       <c r="B120" t="n">
-        <v>8500.799999999999</v>
+        <v>13799.9</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="n">
-        <v>40148</v>
+        <v>43070</v>
       </c>
       <c r="B121" t="n">
-        <v>8496</v>
+        <v>13857.9</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="n">
-        <v>40179</v>
+        <v>43101</v>
       </c>
       <c r="B122" t="n">
-        <v>8458.1</v>
+        <v>13869.7</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="n">
-        <v>40210</v>
+        <v>43132</v>
       </c>
       <c r="B123" t="n">
-        <v>8507.4</v>
+        <v>13912.3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="n">
-        <v>40238</v>
+        <v>43160</v>
       </c>
       <c r="B124" t="n">
-        <v>8504.5</v>
+        <v>13970.2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="n">
-        <v>40269</v>
+        <v>43191</v>
       </c>
       <c r="B125" t="n">
-        <v>8535.200000000001</v>
+        <v>13988.8</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="n">
-        <v>40299</v>
+        <v>43221</v>
       </c>
       <c r="B126" t="n">
-        <v>8589.9</v>
+        <v>14047.2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="n">
-        <v>40330</v>
+        <v>43252</v>
       </c>
       <c r="B127" t="n">
-        <v>8609</v>
+        <v>14103.6</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3" t="n">
-        <v>40360</v>
+        <v>43282</v>
       </c>
       <c r="B128" t="n">
-        <v>8618.799999999999</v>
+        <v>14139.2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="n">
-        <v>40391</v>
+        <v>43313</v>
       </c>
       <c r="B129" t="n">
-        <v>8669.1</v>
+        <v>14181.3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="n">
-        <v>40422</v>
+        <v>43344</v>
       </c>
       <c r="B130" t="n">
-        <v>8700.1</v>
+        <v>14212.9</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="n">
-        <v>40452</v>
+        <v>43374</v>
       </c>
       <c r="B131" t="n">
-        <v>8749.4</v>
+        <v>14222.5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="n">
-        <v>40483</v>
+        <v>43405</v>
       </c>
       <c r="B132" t="n">
-        <v>8770</v>
+        <v>14236.8</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="3" t="n">
-        <v>40513</v>
+        <v>43435</v>
       </c>
       <c r="B133" t="n">
-        <v>8801.799999999999</v>
+        <v>14362.7</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="n">
-        <v>40544</v>
+        <v>43466</v>
       </c>
       <c r="B134" t="n">
-        <v>8823.1</v>
+        <v>14430</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="n">
-        <v>40575</v>
+        <v>43497</v>
       </c>
       <c r="B135" t="n">
-        <v>8886.9</v>
+        <v>14469.9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="n">
-        <v>40603</v>
+        <v>43525</v>
       </c>
       <c r="B136" t="n">
-        <v>8943.5</v>
+        <v>14509.9</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="3" t="n">
-        <v>40634</v>
+        <v>43556</v>
       </c>
       <c r="B137" t="n">
-        <v>9004.9</v>
+        <v>14541</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="n">
-        <v>40664</v>
+        <v>43586</v>
       </c>
       <c r="B138" t="n">
-        <v>9075.5</v>
+        <v>14643.2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="3" t="n">
-        <v>40695</v>
+        <v>43617</v>
       </c>
       <c r="B139" t="n">
-        <v>9151</v>
+        <v>14757.7</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="n">
-        <v>40725</v>
+        <v>43647</v>
       </c>
       <c r="B140" t="n">
-        <v>9316.6</v>
+        <v>14840.6</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="n">
-        <v>40756</v>
+        <v>43678</v>
       </c>
       <c r="B141" t="n">
-        <v>9507.6</v>
+        <v>14914.6</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="n">
-        <v>40787</v>
+        <v>43709</v>
       </c>
       <c r="B142" t="n">
-        <v>9528.299999999999</v>
+        <v>15008.1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="3" t="n">
-        <v>40817</v>
+        <v>43739</v>
       </c>
       <c r="B143" t="n">
-        <v>9562.1</v>
+        <v>15140.8</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="3" t="n">
-        <v>40848</v>
+        <v>43770</v>
       </c>
       <c r="B144" t="n">
-        <v>9612.6</v>
+        <v>15242.2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="3" t="n">
-        <v>40878</v>
+        <v>43800</v>
       </c>
       <c r="B145" t="n">
-        <v>9660.1</v>
+        <v>15320.7</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="n">
-        <v>40909</v>
+        <v>43831</v>
       </c>
       <c r="B146" t="n">
-        <v>9733.299999999999</v>
+        <v>15396</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="3" t="n">
-        <v>40940</v>
+        <v>43862</v>
       </c>
       <c r="B147" t="n">
-        <v>9785.700000000001</v>
+        <v>15450.3</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="3" t="n">
-        <v>40969</v>
+        <v>43891</v>
       </c>
       <c r="B148" t="n">
-        <v>9830.6</v>
+        <v>15978.7</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="n">
-        <v>41000</v>
+        <v>43922</v>
       </c>
       <c r="B149" t="n">
-        <v>9884.6</v>
+        <v>16997.6</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="n">
-        <v>41030</v>
+        <v>43952</v>
       </c>
       <c r="B150" t="n">
-        <v>9928.4</v>
+        <v>17851.1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="n">
-        <v>41061</v>
+        <v>43983</v>
       </c>
       <c r="B151" t="n">
-        <v>9999.299999999999</v>
+        <v>18131.7</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="n">
-        <v>41091</v>
+        <v>44013</v>
       </c>
       <c r="B152" t="n">
-        <v>10051.8</v>
+        <v>18286.3</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="3" t="n">
-        <v>41122</v>
+        <v>44044</v>
       </c>
       <c r="B153" t="n">
-        <v>10121.3</v>
+        <v>18346</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="n">
-        <v>41153</v>
+        <v>44075</v>
       </c>
       <c r="B154" t="n">
-        <v>10200.8</v>
+        <v>18577.3</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="3" t="n">
-        <v>41183</v>
+        <v>44105</v>
       </c>
       <c r="B155" t="n">
-        <v>10267.3</v>
+        <v>18729.1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="n">
-        <v>41214</v>
+        <v>44136</v>
       </c>
       <c r="B156" t="n">
-        <v>10337.6</v>
+        <v>18949.3</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="3" t="n">
-        <v>41244</v>
+        <v>44166</v>
       </c>
       <c r="B157" t="n">
-        <v>10459.7</v>
+        <v>19114.4</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3" t="n">
-        <v>41275</v>
+        <v>44197</v>
       </c>
       <c r="B158" t="n">
-        <v>10482.9</v>
+        <v>19356.9</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="n">
-        <v>41306</v>
+        <v>44228</v>
       </c>
       <c r="B159" t="n">
-        <v>10501.3</v>
+        <v>19600.4</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="n">
-        <v>41334</v>
+        <v>44256</v>
       </c>
       <c r="B160" t="n">
-        <v>10558.3</v>
+        <v>19841</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="3" t="n">
-        <v>41365</v>
+        <v>44287</v>
       </c>
       <c r="B161" t="n">
-        <v>10586.3</v>
+        <v>20116.9</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="n">
-        <v>41395</v>
+        <v>44317</v>
       </c>
       <c r="B162" t="n">
-        <v>10621</v>
+        <v>20431.1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="3" t="n">
-        <v>41426</v>
+        <v>44348</v>
       </c>
       <c r="B163" t="n">
-        <v>10678.7</v>
+        <v>20506.5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="n">
-        <v>41456</v>
+        <v>44378</v>
       </c>
       <c r="B164" t="n">
-        <v>10718.4</v>
+        <v>20663</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="n">
-        <v>41487</v>
+        <v>44409</v>
       </c>
       <c r="B165" t="n">
-        <v>10776.6</v>
+        <v>20847.8</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3" t="n">
-        <v>41518</v>
+        <v>44440</v>
       </c>
       <c r="B166" t="n">
-        <v>10837.2</v>
+        <v>20964.3</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="3" t="n">
-        <v>41548</v>
+        <v>44470</v>
       </c>
       <c r="B167" t="n">
-        <v>10961.6</v>
+        <v>21116.3</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="n">
-        <v>41579</v>
+        <v>44501</v>
       </c>
       <c r="B168" t="n">
-        <v>10969.7</v>
+        <v>21316.3</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="n">
-        <v>41609</v>
+        <v>44531</v>
       </c>
       <c r="B169" t="n">
-        <v>11035</v>
+        <v>21549.2</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="3" t="n">
-        <v>41640</v>
+        <v>44562</v>
       </c>
       <c r="B170" t="n">
-        <v>11080.8</v>
+        <v>21561.9</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="3" t="n">
-        <v>41671</v>
+        <v>44593</v>
       </c>
       <c r="B171" t="n">
-        <v>11178.8</v>
+        <v>21570.4</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="3" t="n">
-        <v>41699</v>
+        <v>44621</v>
       </c>
       <c r="B172" t="n">
-        <v>11208.1</v>
+        <v>21697.5</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="3" t="n">
-        <v>41730</v>
+        <v>44652</v>
       </c>
       <c r="B173" t="n">
-        <v>11257.7</v>
+        <v>21677.2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="3" t="n">
-        <v>41760</v>
+        <v>44682</v>
       </c>
       <c r="B174" t="n">
-        <v>11321</v>
+        <v>21665.5</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="3" t="n">
-        <v>41791</v>
+        <v>44713</v>
       </c>
       <c r="B175" t="n">
-        <v>11374.9</v>
+        <v>21666.4</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="3" t="n">
-        <v>41821</v>
+        <v>44743</v>
       </c>
       <c r="B176" t="n">
-        <v>11429.9</v>
+        <v>21703.6</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="3" t="n">
-        <v>41852</v>
+        <v>44774</v>
       </c>
       <c r="B177" t="n">
-        <v>11458.9</v>
+        <v>21659.9</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="3" t="n">
-        <v>41883</v>
+        <v>44805</v>
       </c>
       <c r="B178" t="n">
-        <v>11499.8</v>
+        <v>21525.2</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="3" t="n">
-        <v>41913</v>
+        <v>44835</v>
       </c>
       <c r="B179" t="n">
-        <v>11566</v>
+        <v>21433.2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="3" t="n">
-        <v>41944</v>
+        <v>44866</v>
       </c>
       <c r="B180" t="n">
-        <v>11604.8</v>
+        <v>21400.1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="3" t="n">
-        <v>41974</v>
+        <v>44896</v>
       </c>
       <c r="B181" t="n">
-        <v>11684.9</v>
+        <v>21359.2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="n">
-        <v>42005</v>
+        <v>44927</v>
       </c>
       <c r="B182" t="n">
-        <v>11745.6</v>
+        <v>21221.5</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="3" t="n">
-        <v>42036</v>
+        <v>44958</v>
       </c>
       <c r="B183" t="n">
-        <v>11879</v>
+        <v>21099.7</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="3" t="n">
-        <v>42064</v>
+        <v>44986</v>
       </c>
       <c r="B184" t="n">
-        <v>11886.8</v>
+        <v>20875.4</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="3" t="n">
-        <v>42095</v>
+        <v>45017</v>
       </c>
       <c r="B185" t="n">
-        <v>11928.9</v>
+        <v>20712.2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="3" t="n">
-        <v>42125</v>
+        <v>45047</v>
       </c>
       <c r="B186" t="n">
-        <v>11957.9</v>
+        <v>20841.7</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="3" t="n">
-        <v>42156</v>
+        <v>45078</v>
       </c>
       <c r="B187" t="n">
-        <v>12001.7</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="3" t="n">
-        <v>42186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>12051.3</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="3" t="n">
-        <v>42217</v>
-      </c>
-      <c r="B189" t="n">
-        <v>12101.9</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="3" t="n">
-        <v>42248</v>
-      </c>
-      <c r="B190" t="n">
-        <v>12160.8</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="3" t="n">
-        <v>42278</v>
-      </c>
-      <c r="B191" t="n">
-        <v>12195.9</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="3" t="n">
-        <v>42309</v>
-      </c>
-      <c r="B192" t="n">
-        <v>12284.6</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="3" t="n">
-        <v>42339</v>
-      </c>
-      <c r="B193" t="n">
-        <v>12346.8</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="3" t="n">
-        <v>42370</v>
-      </c>
-      <c r="B194" t="n">
-        <v>12469.9</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="3" t="n">
-        <v>42401</v>
-      </c>
-      <c r="B195" t="n">
-        <v>12556.7</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="3" t="n">
-        <v>42430</v>
-      </c>
-      <c r="B196" t="n">
-        <v>12616.7</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="3" t="n">
-        <v>42461</v>
-      </c>
-      <c r="B197" t="n">
-        <v>12700.4</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="3" t="n">
-        <v>42491</v>
-      </c>
-      <c r="B198" t="n">
-        <v>12766.2</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="3" t="n">
-        <v>42522</v>
-      </c>
-      <c r="B199" t="n">
-        <v>12829.4</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="3" t="n">
-        <v>42552</v>
-      </c>
-      <c r="B200" t="n">
-        <v>12887.7</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="3" t="n">
-        <v>42583</v>
-      </c>
-      <c r="B201" t="n">
-        <v>12972.8</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="3" t="n">
-        <v>42614</v>
-      </c>
-      <c r="B202" t="n">
-        <v>13033.6</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="3" t="n">
-        <v>42644</v>
-      </c>
-      <c r="B203" t="n">
-        <v>13100.5</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="3" t="n">
-        <v>42675</v>
-      </c>
-      <c r="B204" t="n">
-        <v>13173.4</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="3" t="n">
-        <v>42705</v>
-      </c>
-      <c r="B205" t="n">
-        <v>13213.4</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="3" t="n">
-        <v>42736</v>
-      </c>
-      <c r="B206" t="n">
-        <v>13283.4</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="3" t="n">
-        <v>42767</v>
-      </c>
-      <c r="B207" t="n">
-        <v>13358.8</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="3" t="n">
-        <v>42795</v>
-      </c>
-      <c r="B208" t="n">
-        <v>13426.9</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="3" t="n">
-        <v>42826</v>
-      </c>
-      <c r="B209" t="n">
-        <v>13484.9</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="3" t="n">
-        <v>42856</v>
-      </c>
-      <c r="B210" t="n">
-        <v>13538.1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="3" t="n">
-        <v>42887</v>
-      </c>
-      <c r="B211" t="n">
-        <v>13559.2</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="3" t="n">
-        <v>42917</v>
-      </c>
-      <c r="B212" t="n">
-        <v>13618.7</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="3" t="n">
-        <v>42948</v>
-      </c>
-      <c r="B213" t="n">
-        <v>13673.7</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="3" t="n">
-        <v>42979</v>
-      </c>
-      <c r="B214" t="n">
-        <v>13717.9</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="3" t="n">
-        <v>43009</v>
-      </c>
-      <c r="B215" t="n">
-        <v>13770.1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="3" t="n">
-        <v>43040</v>
-      </c>
-      <c r="B216" t="n">
-        <v>13799.9</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="3" t="n">
-        <v>43070</v>
-      </c>
-      <c r="B217" t="n">
-        <v>13857.9</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="3" t="n">
-        <v>43101</v>
-      </c>
-      <c r="B218" t="n">
-        <v>13869.7</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="3" t="n">
-        <v>43132</v>
-      </c>
-      <c r="B219" t="n">
-        <v>13912.3</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="3" t="n">
-        <v>43160</v>
-      </c>
-      <c r="B220" t="n">
-        <v>13970.2</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="3" t="n">
-        <v>43191</v>
-      </c>
-      <c r="B221" t="n">
-        <v>13988.8</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="3" t="n">
-        <v>43221</v>
-      </c>
-      <c r="B222" t="n">
-        <v>14047.2</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="3" t="n">
-        <v>43252</v>
-      </c>
-      <c r="B223" t="n">
-        <v>14103.6</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="3" t="n">
-        <v>43282</v>
-      </c>
-      <c r="B224" t="n">
-        <v>14139.2</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="3" t="n">
-        <v>43313</v>
-      </c>
-      <c r="B225" t="n">
-        <v>14181.3</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="3" t="n">
-        <v>43344</v>
-      </c>
-      <c r="B226" t="n">
-        <v>14212.9</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="3" t="n">
-        <v>43374</v>
-      </c>
-      <c r="B227" t="n">
-        <v>14222.5</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="3" t="n">
-        <v>43405</v>
-      </c>
-      <c r="B228" t="n">
-        <v>14236.8</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="3" t="n">
-        <v>43435</v>
-      </c>
-      <c r="B229" t="n">
-        <v>14362.7</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="3" t="n">
-        <v>43466</v>
-      </c>
-      <c r="B230" t="n">
-        <v>14430</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="3" t="n">
-        <v>43497</v>
-      </c>
-      <c r="B231" t="n">
-        <v>14469.9</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="3" t="n">
-        <v>43525</v>
-      </c>
-      <c r="B232" t="n">
-        <v>14509.9</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="3" t="n">
-        <v>43556</v>
-      </c>
-      <c r="B233" t="n">
-        <v>14541</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="3" t="n">
-        <v>43586</v>
-      </c>
-      <c r="B234" t="n">
-        <v>14643.2</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="3" t="n">
-        <v>43617</v>
-      </c>
-      <c r="B235" t="n">
-        <v>14757.7</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="3" t="n">
-        <v>43647</v>
-      </c>
-      <c r="B236" t="n">
-        <v>14840.6</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="3" t="n">
-        <v>43678</v>
-      </c>
-      <c r="B237" t="n">
-        <v>14914.6</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="3" t="n">
-        <v>43709</v>
-      </c>
-      <c r="B238" t="n">
-        <v>15008.1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="3" t="n">
-        <v>43739</v>
-      </c>
-      <c r="B239" t="n">
-        <v>15140.8</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="3" t="n">
-        <v>43770</v>
-      </c>
-      <c r="B240" t="n">
-        <v>15242.2</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="3" t="n">
-        <v>43800</v>
-      </c>
-      <c r="B241" t="n">
-        <v>15320.7</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="3" t="n">
-        <v>43831</v>
-      </c>
-      <c r="B242" t="n">
-        <v>15396</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="3" t="n">
-        <v>43862</v>
-      </c>
-      <c r="B243" t="n">
-        <v>15450.3</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="3" t="n">
-        <v>43891</v>
-      </c>
-      <c r="B244" t="n">
-        <v>15978.7</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="3" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B245" t="n">
-        <v>16997.6</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="3" t="n">
-        <v>43952</v>
-      </c>
-      <c r="B246" t="n">
-        <v>17851.1</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="3" t="n">
-        <v>43983</v>
-      </c>
-      <c r="B247" t="n">
-        <v>18131.7</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="3" t="n">
-        <v>44013</v>
-      </c>
-      <c r="B248" t="n">
-        <v>18286.3</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="3" t="n">
-        <v>44044</v>
-      </c>
-      <c r="B249" t="n">
-        <v>18346</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="3" t="n">
-        <v>44075</v>
-      </c>
-      <c r="B250" t="n">
-        <v>18577.3</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="3" t="n">
-        <v>44105</v>
-      </c>
-      <c r="B251" t="n">
-        <v>18729.1</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="3" t="n">
-        <v>44136</v>
-      </c>
-      <c r="B252" t="n">
-        <v>18949.3</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="3" t="n">
-        <v>44166</v>
-      </c>
-      <c r="B253" t="n">
-        <v>19114.3</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="3" t="n">
-        <v>44197</v>
-      </c>
-      <c r="B254" t="n">
-        <v>19356.7</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="3" t="n">
-        <v>44228</v>
-      </c>
-      <c r="B255" t="n">
-        <v>19600.3</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="3" t="n">
-        <v>44256</v>
-      </c>
-      <c r="B256" t="n">
-        <v>19841.2</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="3" t="n">
-        <v>44287</v>
-      </c>
-      <c r="B257" t="n">
-        <v>20116.9</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="3" t="n">
-        <v>44317</v>
-      </c>
-      <c r="B258" t="n">
-        <v>20431.1</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="3" t="n">
-        <v>44348</v>
-      </c>
-      <c r="B259" t="n">
-        <v>20506.6</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="3" t="n">
-        <v>44378</v>
-      </c>
-      <c r="B260" t="n">
-        <v>20662.9</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="3" t="n">
-        <v>44409</v>
-      </c>
-      <c r="B261" t="n">
-        <v>20847.8</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="3" t="n">
-        <v>44440</v>
-      </c>
-      <c r="B262" t="n">
-        <v>20964.3</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="3" t="n">
-        <v>44470</v>
-      </c>
-      <c r="B263" t="n">
-        <v>21116.2</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="3" t="n">
-        <v>44501</v>
-      </c>
-      <c r="B264" t="n">
-        <v>21316.1</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="3" t="n">
-        <v>44531</v>
-      </c>
-      <c r="B265" t="n">
-        <v>21549.1</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="3" t="n">
-        <v>44562</v>
-      </c>
-      <c r="B266" t="n">
-        <v>21561.8</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="3" t="n">
-        <v>44593</v>
-      </c>
-      <c r="B267" t="n">
-        <v>21570.3</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="3" t="n">
-        <v>44621</v>
-      </c>
-      <c r="B268" t="n">
-        <v>21697.5</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="3" t="n">
-        <v>44652</v>
-      </c>
-      <c r="B269" t="n">
-        <v>21677.1</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="3" t="n">
-        <v>44682</v>
-      </c>
-      <c r="B270" t="n">
-        <v>21665.2</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="3" t="n">
-        <v>44713</v>
-      </c>
-      <c r="B271" t="n">
-        <v>21665.7</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="3" t="n">
-        <v>44743</v>
-      </c>
-      <c r="B272" t="n">
-        <v>21702.6</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="3" t="n">
-        <v>44774</v>
-      </c>
-      <c r="B273" t="n">
-        <v>21658.9</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="3" t="n">
-        <v>44805</v>
-      </c>
-      <c r="B274" t="n">
-        <v>21524.2</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="3" t="n">
-        <v>44835</v>
-      </c>
-      <c r="B275" t="n">
-        <v>21432.3</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="3" t="n">
-        <v>44866</v>
-      </c>
-      <c r="B276" t="n">
-        <v>21399</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="3" t="n">
-        <v>44896</v>
-      </c>
-      <c r="B277" t="n">
-        <v>21358.1</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B278" t="n">
-        <v>21212.7</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="3" t="n">
-        <v>44958</v>
-      </c>
-      <c r="B279" t="n">
-        <v>21077.4</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="3" t="n">
-        <v>44986</v>
-      </c>
-      <c r="B280" t="n">
-        <v>20841.1</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="3" t="n">
-        <v>45017</v>
-      </c>
-      <c r="B281" t="n">
-        <v>20674.6</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="3" t="n">
-        <v>45047</v>
-      </c>
-      <c r="B282" t="n">
-        <v>20805.5</v>
+        <v>20889.5</v>
       </c>
     </row>
   </sheetData>
@@ -2753,7 +1993,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-07-25</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2005,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-07-25</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2041,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-06-01</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2125,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-06-27 12:03:02-05</t>
+          <t>2023-07-25 12:03:02-05</t>
         </is>
       </c>
     </row>
